--- a/jupyter_notebooks/file/input/elements_outages_v0/network.xlsx
+++ b/jupyter_notebooks/file/input/elements_outages_v0/network.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FBK106\Documents\Repositories\ResiliencyTool\jupyter_notebooks\file\input\elements_outages_v0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\ResiliencyTool\jupyter_notebooks\file\input\elements_outages_v0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F19B51-C9CC-40D3-ADC1-1CDF85D7E5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8530A98-E922-4DFE-B783-ED428026E15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="28770" windowHeight="15600" activeTab="7" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{9ECEC293-7360-4DDE-9C10-8A2C51BA16DF}"/>
   </bookViews>
   <sheets>
     <sheet name="simulation" sheetId="12" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="cost" sheetId="10" r:id="rId11"/>
     <sheet name="profiles" sheetId="11" r:id="rId12"/>
     <sheet name="crews" sheetId="13" r:id="rId13"/>
+    <sheet name="switches" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="168">
   <si>
     <t>name</t>
   </si>
@@ -533,6 +534,24 @@
   </si>
   <si>
     <t>slack</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>in_ka</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>associated elements</t>
+  </si>
+  <si>
+    <t>ignore montecarlo</t>
   </si>
 </sst>
 </file>
@@ -881,15 +900,15 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>146</v>
       </c>
@@ -900,7 +919,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -915,7 +934,7 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -926,7 +945,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -937,7 +956,7 @@
         <v>44562.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -962,21 +981,21 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1044,19 +1063,19 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1101,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1096,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1110,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1124,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -1138,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -1152,7 +1171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -1166,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>142</v>
       </c>
@@ -1180,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1194,7 +1213,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1208,7 +1227,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1222,7 +1241,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>134</v>
       </c>
@@ -1236,7 +1255,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -1250,7 +1269,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>136</v>
       </c>
@@ -1264,7 +1283,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -1278,7 +1297,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>138</v>
       </c>
@@ -1306,14 +1325,14 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="12" customWidth="1"/>
-    <col min="10" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="17" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>145</v>
       </c>
@@ -1342,7 +1361,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -1371,7 +1390,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <f>DATE(2022,1,1)+TIME(0,0,0)</f>
         <v>44562</v>
@@ -1401,7 +1420,7 @@
         <v>21.371639409315751</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <f>A3+TIME(1,0,0)</f>
         <v>44562.041666666664</v>
@@ -1431,7 +1450,7 @@
         <v>28.105959665329753</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f t="shared" ref="A5:A50" si="0">A4+TIME(1,0,0)</f>
         <v>44562.083333333328</v>
@@ -1461,7 +1480,7 @@
         <v>9.1282470045272994</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>44562.124999999993</v>
@@ -1491,7 +1510,7 @@
         <v>15.708574163724149</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>44562.166666666657</v>
@@ -1521,7 +1540,7 @@
         <v>12.2020182929984</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>44562.208333333321</v>
@@ -1551,7 +1570,7 @@
         <v>8.4403475853385999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>44562.249999999985</v>
@@ -1581,7 +1600,7 @@
         <v>28.807963169901448</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>44562.29166666665</v>
@@ -1611,7 +1630,7 @@
         <v>22.373377782791152</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>44562.333333333314</v>
@@ -1641,7 +1660,7 @@
         <v>4.9616913424379501</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>44562.374999999978</v>
@@ -1671,7 +1690,7 @@
         <v>7.2522069367350497</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>44562.416666666642</v>
@@ -1701,7 +1720,7 @@
         <v>17.212243949782501</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>44562.458333333307</v>
@@ -1731,7 +1750,7 @@
         <v>14.492097950783201</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>44562.499999999971</v>
@@ -1761,7 +1780,7 @@
         <v>1.3686658934214349</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>44562.541666666635</v>
@@ -1791,7 +1810,7 @@
         <v>11.417938080505099</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>44562.583333333299</v>
@@ -1821,7 +1840,7 @@
         <v>16.021186417961001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>44562.624999999964</v>
@@ -1851,7 +1870,7 @@
         <v>21.7746678352377</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>44562.666666666628</v>
@@ -1881,7 +1900,7 @@
         <v>7.2052768923937007</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>44562.708333333292</v>
@@ -1911,7 +1930,7 @@
         <v>5.3483354798130502</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>44562.749999999956</v>
@@ -1941,7 +1960,7 @@
         <v>10.881664988415249</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>44562.791666666621</v>
@@ -1971,7 +1990,7 @@
         <v>8.1500039867009999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>44562.833333333285</v>
@@ -2001,7 +2020,7 @@
         <v>26.956796269977652</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>44562.874999999949</v>
@@ -2031,7 +2050,7 @@
         <v>13.1230883033355</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>44562.916666666613</v>
@@ -2061,7 +2080,7 @@
         <v>8.8088712856655</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>44562.958333333278</v>
@@ -2091,7 +2110,7 @@
         <v>17.264486743835</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>44562.999999999942</v>
@@ -2121,7 +2140,7 @@
         <v>21.30123747192275</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>44563.041666666606</v>
@@ -2151,7 +2170,7 @@
         <v>29.080919589563102</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>44563.08333333327</v>
@@ -2181,7 +2200,7 @@
         <v>7.30968287190335</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>44563.124999999935</v>
@@ -2211,7 +2230,7 @@
         <v>8.2955889811806998</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>44563.166666666599</v>
@@ -2241,7 +2260,7 @@
         <v>27.29881060630365</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>44563.208333333263</v>
@@ -2271,7 +2290,7 @@
         <v>6.2590960407578997</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>44563.249999999927</v>
@@ -2301,7 +2320,7 @@
         <v>16.754563657699052</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>44563.291666666591</v>
@@ -2331,7 +2350,7 @@
         <v>26.55783872232465</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>44563.333333333256</v>
@@ -2361,7 +2380,7 @@
         <v>27.360605552400699</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>44563.37499999992</v>
@@ -2391,7 +2410,7 @@
         <v>20.850242364518451</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>44563.416666666584</v>
@@ -2421,7 +2440,7 @@
         <v>28.6750511358761</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>44563.458333333248</v>
@@ -2451,7 +2470,7 @@
         <v>15.266009289393949</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>44563.499999999913</v>
@@ -2481,7 +2500,7 @@
         <v>22.563764908730903</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>44563.541666666577</v>
@@ -2511,7 +2530,7 @@
         <v>9.0941284141763497</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>44563.583333333241</v>
@@ -2541,7 +2560,7 @@
         <v>20.835089735846001</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>44563.624999999905</v>
@@ -2571,7 +2590,7 @@
         <v>25.072970954939052</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>44563.66666666657</v>
@@ -2601,7 +2620,7 @@
         <v>23.1017837324544</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>44563.708333333234</v>
@@ -2631,7 +2650,7 @@
         <v>15.93018651585025</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44563.749999999898</v>
@@ -2661,7 +2680,7 @@
         <v>7.2710561235541507</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>44563.791666666562</v>
@@ -2691,7 +2710,7 @@
         <v>2.9321478799559801</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>44563.833333333227</v>
@@ -2721,7 +2740,7 @@
         <v>10.4956875711216</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>44563.874999999891</v>
@@ -2751,7 +2770,7 @@
         <v>27.439705498793199</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>44563.916666666555</v>
@@ -2781,7 +2800,7 @@
         <v>25.294130966796452</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>44563.958333333219</v>
@@ -2826,33 +2845,130 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>156</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CD46B6-FCA1-46C6-B766-BB89924E2A7E}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2865,9 +2981,9 @@
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2878,7 +2994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2899,19 +3015,19 @@
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2958,7 +3074,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2989,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3012,7 +3128,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3037,7 +3153,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3062,7 +3178,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -3087,7 +3203,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -3112,7 +3228,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -3137,7 +3253,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -3162,7 +3278,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>110</v>
       </c>
@@ -3187,7 +3303,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -3212,7 +3328,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>112</v>
       </c>
@@ -3237,7 +3353,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>113</v>
       </c>
@@ -3262,7 +3378,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -3287,7 +3403,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>115</v>
       </c>
@@ -3312,7 +3428,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -3337,7 +3453,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>117</v>
       </c>
@@ -3362,7 +3478,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>132</v>
       </c>
@@ -3387,7 +3503,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>133</v>
       </c>
@@ -3427,26 +3543,26 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3493,7 +3609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3516,7 +3632,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3539,7 +3655,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3562,7 +3678,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>134</v>
       </c>
@@ -3585,7 +3701,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>135</v>
       </c>
@@ -3608,7 +3724,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>136</v>
       </c>
@@ -3631,7 +3747,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -3654,7 +3770,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -3690,34 +3806,34 @@
       <selection activeCell="Z1" sqref="Y1:Z1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3791,7 +3907,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -3815,7 +3931,7 @@
       </c>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -3839,7 +3955,7 @@
       </c>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>139</v>
       </c>
@@ -3863,7 +3979,7 @@
       </c>
       <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -3887,7 +4003,7 @@
       </c>
       <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -3911,7 +4027,7 @@
       </c>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>142</v>
       </c>
@@ -3935,7 +4051,7 @@
       </c>
       <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M8" s="2"/>
       <c r="V8" s="2"/>
     </row>
@@ -3952,28 +4068,28 @@
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4026,7 +4142,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -4062,27 +4178,27 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4132,7 +4248,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4191,25 +4307,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FE2EA6-5FEC-471F-BC99-9A1BBFAA5478}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4247,7 +4363,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4286,27 +4402,27 @@
       <selection activeCell="P1" sqref="O1:P1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4356,7 +4472,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -4392,7 +4508,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -4425,7 +4541,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>118</v>
       </c>
@@ -4458,7 +4574,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>119</v>
       </c>
@@ -4491,7 +4607,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>120</v>
       </c>
@@ -4524,7 +4640,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -4557,7 +4673,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -4590,7 +4706,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -4623,7 +4739,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -4656,7 +4772,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>125</v>
       </c>
@@ -4689,7 +4805,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>126</v>
       </c>
@@ -4722,7 +4838,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -4755,7 +4871,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>128</v>
       </c>
@@ -4788,7 +4904,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -4821,7 +4937,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>130</v>
       </c>
@@ -4854,7 +4970,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>131</v>
       </c>
